--- a/text_clustering_params.xlsx
+++ b/text_clustering_params.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKA\Documents\text clustring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F622CBE3-3480-491D-867C-69D0E9B28029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E662F586-2839-4BFD-9CE7-92D4AA01B4DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -62,6 +68,18 @@
   </si>
   <si>
     <t>betweenness_processes</t>
+  </si>
+  <si>
+    <t>lda4</t>
+  </si>
+  <si>
+    <t>lda5</t>
+  </si>
+  <si>
+    <t>wntm13</t>
+  </si>
+  <si>
+    <t>wntm14</t>
   </si>
 </sst>
 </file>
@@ -388,7 +406,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,10 +433,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -430,15 +448,15 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -450,15 +468,15 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -470,15 +488,15 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -490,7 +508,7 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -501,6 +519,1216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F0D545-FD7C-433C-8F5A-17D49C4709B6}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0.15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463EDBAF-F8C8-497F-BB8C-8E5A2DEDCADB}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B3540C-FFB2-4549-A862-F70A75E77104}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693B2324-D6C0-4ADF-8F4B-862C3CF83F08}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6E5E8-D5B9-48CF-BCC6-97186DC53968}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.05</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C1FB1-E494-482F-A209-424B9EEA351E}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DFE480-7524-4775-AA48-385235422CEA}">
   <dimension ref="A1:F5"/>
   <sheetViews>

--- a/text_clustering_params.xlsx
+++ b/text_clustering_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKA\Documents\text clustring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E662F586-2839-4BFD-9CE7-92D4AA01B4DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43CB29-C2CE-482E-8D71-5244AA36B731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,10 +433,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -448,15 +448,15 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -468,15 +468,15 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.03</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -488,15 +488,15 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0.08</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -508,7 +508,124 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.35</v>
+      </c>
+      <c r="F8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/text_clustering_params.xlsx
+++ b/text_clustering_params.xlsx
@@ -8,31 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKA\Documents\text clustring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43CB29-C2CE-482E-8D71-5244AA36B731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421ECDBF-FA15-46F8-8542-7AD9261CAE3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" tabRatio="830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId2"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId3"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId4"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId5"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId6"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId7"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId8"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId9"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId10"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId13"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId14"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId15"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId16"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId17"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId18"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId19"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId20"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId21"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -80,6 +100,63 @@
   </si>
   <si>
     <t>wntm14</t>
+  </si>
+  <si>
+    <t>V02</t>
+  </si>
+  <si>
+    <t>bbcsport</t>
+  </si>
+  <si>
+    <t>cran_cisi_pubmed</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>cran_cisi</t>
+  </si>
+  <si>
+    <t>cran_pubmed</t>
+  </si>
+  <si>
+    <t>pubmed_cisi</t>
+  </si>
+  <si>
+    <t>LDA100-1</t>
+  </si>
+  <si>
+    <t>LDA50-2</t>
+  </si>
+  <si>
+    <t>LDA20-3</t>
+  </si>
+  <si>
+    <t>LDA100-4</t>
+  </si>
+  <si>
+    <t>LDA50-5</t>
+  </si>
+  <si>
+    <t>LDA20-6</t>
+  </si>
+  <si>
+    <t>LDA100-7</t>
+  </si>
+  <si>
+    <t>LDA50-8</t>
+  </si>
+  <si>
+    <t>LDA20-9</t>
+  </si>
+  <si>
+    <t>LDA100-10</t>
+  </si>
+  <si>
+    <t>LDA50-11</t>
+  </si>
+  <si>
+    <t>LDA20-12</t>
   </si>
 </sst>
 </file>
@@ -403,10 +480,1583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="F2" sqref="F2:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>0.15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>0.25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347A1CC2-D347-404D-96E7-09CB107C074C}">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A2:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>0.65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0.3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>0.65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>0.5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>0.65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>0.8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>0.3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>0.65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>0.1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>0.3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>0.65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>0.5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>0.65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>0.8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>0.1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>0.3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>0.5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>0.65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>0.1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>0.3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>0.5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>0.65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FF0382-60B8-421A-B94E-4EAA1D6B4C09}">
+  <dimension ref="A14:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0.3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>0.1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0.3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D910AD-6F01-4582-97A7-222BF9FF6A07}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,6 +2083,591 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB8EB0D-D220-4A00-B525-4E1F557B6031}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A2:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4A1A31-F1C0-4A58-904F-5EE7C5D98A0E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240544CF-248C-46B4-B875-44AB650AECF4}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
@@ -629,13 +2864,11 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F0D545-FD7C-433C-8F5A-17D49C4709B6}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -930,7 +3163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463EDBAF-F8C8-497F-BB8C-8E5A2DEDCADB}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1105,7 +3338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B3540C-FFB2-4549-A862-F70A75E77104}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1300,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693B2324-D6C0-4ADF-8F4B-862C3CF83F08}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1475,7 +3708,442 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3AAC2-3797-4017-B8F2-6609780AFEE0}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0.15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>0.4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0.4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>0.4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6E5E8-D5B9-48CF-BCC6-97186DC53968}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1730,7 +4398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C1FB1-E494-482F-A209-424B9EEA351E}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1845,7 +4513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DFE480-7524-4775-AA48-385235422CEA}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1913,4 +4581,1774 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7665D14D-2208-4E4C-9547-0959D9013D8D}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>0.65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>0.65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>0.65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C4B7E9-EA5D-491C-A39B-565EAE076E15}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0.65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0.65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0.65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0.65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>0.65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>0.65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>0.8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>0.8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>0.65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0.65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>0.8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE34B21-F984-48D0-A1F9-6560DF6502E2}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954D1D37-8B3F-4EA1-88CB-CD92027A6B55}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781063F9-86F6-49E6-A3FE-EB877CA2EBC3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224CAE0B-0C28-4C50-9198-CF8E17388A18}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8CD5AD-3E5E-4479-BA4C-1C860662828E}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/text_clustering_params.xlsx
+++ b/text_clustering_params.xlsx
@@ -8,33 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKA\Documents\text clustring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421ECDBF-FA15-46F8-8542-7AD9261CAE3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B79246-ACE3-440D-9C96-2E425D2E483C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" tabRatio="830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet23" sheetId="23" r:id="rId2"/>
-    <sheet name="Sheet22" sheetId="22" r:id="rId3"/>
-    <sheet name="Sheet21" sheetId="21" r:id="rId4"/>
-    <sheet name="Sheet20" sheetId="20" r:id="rId5"/>
-    <sheet name="Sheet18" sheetId="18" r:id="rId6"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId7"/>
-    <sheet name="Sheet17" sheetId="17" r:id="rId8"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId9"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId10"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId13"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId14"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId15"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId16"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId17"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId18"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId19"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId20"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId21"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId22"/>
+    <sheet name="Sheet14" sheetId="24" r:id="rId2"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId3"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId4"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId5"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId6"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId7"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId8"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId9"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId10"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId11"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId14"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId15"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId16"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId17"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId18"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId19"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId20"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId21"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId22"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId23"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -480,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,182 +514,442 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.65</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.65</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>69</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0.3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0.65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>0.3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>0.65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -699,6 +960,244 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8CD5AD-3E5E-4479-BA4C-1C860662828E}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347A1CC2-D347-404D-96E7-09CB107C074C}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -1776,7 +2275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FF0382-60B8-421A-B94E-4EAA1D6B4C09}">
   <dimension ref="A14:F26"/>
   <sheetViews>
@@ -2051,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D910AD-6F01-4582-97A7-222BF9FF6A07}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2286,7 +2785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB8EB0D-D220-4A00-B525-4E1F557B6031}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -2581,7 +3080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4A1A31-F1C0-4A58-904F-5EE7C5D98A0E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2636,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240544CF-248C-46B4-B875-44AB650AECF4}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -2868,7 +3367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F0D545-FD7C-433C-8F5A-17D49C4709B6}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -3163,7 +3662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463EDBAF-F8C8-497F-BB8C-8E5A2DEDCADB}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3338,7 +3837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B3540C-FFB2-4549-A862-F70A75E77104}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -3533,7 +4032,202 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A51D8-BBD9-49BF-BF2D-ED9CAFB0561F}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0.15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693B2324-D6C0-4ADF-8F4B-862C3CF83F08}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3708,442 +4402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3AAC2-3797-4017-B8F2-6609780AFEE0}">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>0.2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>0.2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>0.3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>0.4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>0.15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>0.2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>0.3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>0.4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>0.3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <v>0.4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>0.2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>0.3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <v>0.2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>0.3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>0.3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <v>0.4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6E5E8-D5B9-48CF-BCC6-97186DC53968}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -4398,7 +4657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C1FB1-E494-482F-A209-424B9EEA351E}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -4513,7 +4772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DFE480-7524-4775-AA48-385235422CEA}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -4584,11 +4843,446 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3AAC2-3797-4017-B8F2-6609780AFEE0}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0.15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>0.4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0.4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>0.4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7665D14D-2208-4E4C-9547-0959D9013D8D}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4801,11 +5495,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C4B7E9-EA5D-491C-A39B-565EAE076E15}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD28"/>
     </sheetView>
   </sheetViews>
@@ -5376,12 +6070,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE34B21-F984-48D0-A1F9-6560DF6502E2}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A14" sqref="A2:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5671,7 +6365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954D1D37-8B3F-4EA1-88CB-CD92027A6B55}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -5806,7 +6500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781063F9-86F6-49E6-A3FE-EB877CA2EBC3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5820,7 +6514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224CAE0B-0C28-4C50-9198-CF8E17388A18}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -6113,242 +6807,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8CD5AD-3E5E-4479-BA4C-1C860662828E}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0.3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/text_clustering_params.xlsx
+++ b/text_clustering_params.xlsx
@@ -8,34 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAKA\Documents\text clustring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76D5CA9-9DBD-42F3-960C-73D13DC3C26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0093D8C-0C97-428B-B705-B9925BC26236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="11390" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet21" sheetId="27" r:id="rId2"/>
-    <sheet name="Sheet23" sheetId="26" r:id="rId3"/>
-    <sheet name="Sheet22" sheetId="25" r:id="rId4"/>
-    <sheet name="Sheet20" sheetId="23" r:id="rId5"/>
-    <sheet name="Sheet19" sheetId="22" r:id="rId6"/>
-    <sheet name="Sheet18" sheetId="21" r:id="rId7"/>
-    <sheet name="Sheet17" sheetId="20" r:id="rId8"/>
-    <sheet name="Sheet15" sheetId="18" r:id="rId9"/>
-    <sheet name="Sheet16" sheetId="19" r:id="rId10"/>
-    <sheet name="Sheet9" sheetId="17" r:id="rId11"/>
-    <sheet name="Sheet14" sheetId="16" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="15" r:id="rId13"/>
-    <sheet name="Sheet6" sheetId="13" r:id="rId14"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId15"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId16"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId17"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId18"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId19"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId20"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId21"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId22"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId23"/>
+    <sheet name="Sheet37" sheetId="41" r:id="rId2"/>
+    <sheet name="Sheet36" sheetId="40" r:id="rId3"/>
+    <sheet name="Sheet35" sheetId="39" r:id="rId4"/>
+    <sheet name="Sheet34" sheetId="38" r:id="rId5"/>
+    <sheet name="Sheet33" sheetId="37" r:id="rId6"/>
+    <sheet name="Sheet32" sheetId="36" r:id="rId7"/>
+    <sheet name="Sheet31" sheetId="35" r:id="rId8"/>
+    <sheet name="Sheet30" sheetId="34" r:id="rId9"/>
+    <sheet name="Sheet29" sheetId="33" r:id="rId10"/>
+    <sheet name="Sheet28" sheetId="32" r:id="rId11"/>
+    <sheet name="Sheet27" sheetId="31" r:id="rId12"/>
+    <sheet name="Sheet26" sheetId="30" r:id="rId13"/>
+    <sheet name="Sheet25" sheetId="29" r:id="rId14"/>
+    <sheet name="Sheet21" sheetId="27" r:id="rId15"/>
+    <sheet name="Sheet24" sheetId="28" r:id="rId16"/>
+    <sheet name="Sheet23" sheetId="26" r:id="rId17"/>
+    <sheet name="Sheet22" sheetId="25" r:id="rId18"/>
+    <sheet name="Sheet20" sheetId="23" r:id="rId19"/>
+    <sheet name="Sheet19" sheetId="22" r:id="rId20"/>
+    <sheet name="Sheet18" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet17" sheetId="20" r:id="rId22"/>
+    <sheet name="Sheet15" sheetId="18" r:id="rId23"/>
+    <sheet name="Sheet16" sheetId="19" r:id="rId24"/>
+    <sheet name="Sheet9" sheetId="17" r:id="rId25"/>
+    <sheet name="Sheet14" sheetId="16" r:id="rId26"/>
+    <sheet name="Sheet13" sheetId="15" r:id="rId27"/>
+    <sheet name="Sheet6" sheetId="13" r:id="rId28"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId29"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId30"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId31"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId32"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId33"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId34"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId36"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId37"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -179,6 +193,48 @@
   </si>
   <si>
     <t>LDA50-20</t>
+  </si>
+  <si>
+    <t>LDA20</t>
+  </si>
+  <si>
+    <t>LDA100</t>
+  </si>
+  <si>
+    <t>LDA50</t>
+  </si>
+  <si>
+    <t>LDA3</t>
+  </si>
+  <si>
+    <t>PTM20</t>
+  </si>
+  <si>
+    <t>PTM100</t>
+  </si>
+  <si>
+    <t>PTM50</t>
+  </si>
+  <si>
+    <t>PTM3</t>
+  </si>
+  <si>
+    <t>cran-cisi-pubmed-300-overlapped</t>
+  </si>
+  <si>
+    <t>cran-cisi-pubmed-300</t>
+  </si>
+  <si>
+    <t>cran-cisi-pubmed-1000</t>
+  </si>
+  <si>
+    <t>cran-cisi-pubmed-1000-overlapped</t>
+  </si>
+  <si>
+    <t>cran-cisi-pubmed-100-overlapped</t>
+  </si>
+  <si>
+    <t>cran-cisi-pubmed-overlapped</t>
   </si>
 </sst>
 </file>
@@ -502,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +592,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -545,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -556,7 +612,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -565,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -576,7 +632,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -585,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -596,7 +652,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -605,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -616,7 +672,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -625,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -636,7 +692,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -645,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -656,7 +712,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -665,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -676,7 +732,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -685,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -696,7 +752,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -705,32 +761,12 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
         <v>10</v>
       </c>
     </row>
@@ -742,6 +778,3095 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F8566F-A544-4BEA-B4E4-4483664FBDA0}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA854A8-B0FB-4B69-BCAE-C8E7F32C3D91}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708DA542-9613-4C41-8CDC-97C30678F9BC}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DCCA46-EC67-4646-A496-21CD9E839DF9}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BDA952-FCBC-49C2-AEF9-2440260C1A62}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF6F27D-34F5-434C-A063-49EFB3C23616}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF351D2-DB10-489C-B34B-54724D4A9B27}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A2:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69BB5EC-C816-43D7-B987-E31256FD39FF}">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F39A0E-8B54-4F35-8DCF-2D26B1C9B1D2}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DC89B7-89F7-43B0-8C3E-3B228E36FA91}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD30317-B08C-4C6F-A8D7-873CA0551D59}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116C48A-8C8D-49DE-AD5B-22B2B88A2B6E}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836FC3F0-8E23-4352-AA99-A1981D80A044}">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A87249-1648-4B41-8AFE-8FFE55BA6B4E}">
+  <dimension ref="A2:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE337722-11CE-4E83-8381-0D7E19FDD5D4}">
+  <dimension ref="A2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D36CED-E659-40FE-A633-D3E1F2F53C89}">
   <dimension ref="A2:F8"/>
   <sheetViews>
@@ -896,7 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D2ACB9-ADAA-4565-A1FF-488F67C0E1E8}">
   <dimension ref="A2:F2"/>
   <sheetViews>
@@ -931,7 +4056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC8943D-18A5-4D95-8FBF-01B919E71511}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1169,7 +4294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43793402-4AEF-4B9D-AFA5-BB3ADC495F0A}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1264,7 +4389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC01A3FB-9590-496D-90DD-F91A4C79D82C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1439,7 +4564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2941A939-BA74-4242-B89E-C3A92B0D61DA}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1634,7 +4759,342 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69CC03D-C3FE-423F-B389-1BE018739E5E}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232259C3-844D-4E1E-8BAB-57C8FB5637DC}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1769,7 +5229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C464047-61D9-4085-BDB3-93993AE052D5}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1904,7 +5364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E544CE8-9811-45DB-93F5-67FA613A44A8}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -2219,7 +5679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A306371E-3D08-4B02-9792-62C1898D4DF1}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2374,222 +5834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF6F27D-34F5-434C-A063-49EFB3C23616}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1">
-        <v>10</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B3B96-418B-40D2-BF1E-A2AB1E11B801}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2684,7 +5929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0A7DC0-8597-4C4B-BD44-40A3FDFD9272}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2839,7 +6084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158EE1DD-03EF-472E-89EC-67149ED07F92}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2994,7 +6239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759C8776-3225-49FA-A553-85AD6B5EB9AE}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -3149,254 +6394,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69BB5EC-C816-43D7-B987-E31256FD39FF}">
-  <dimension ref="A2:F12"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9A2B2C-F29A-4A9F-93CD-A240F4EC9452}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F39A0E-8B54-4F35-8DCF-2D26B1C9B1D2}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -3405,7 +6415,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E1">
         <v>10</v>
@@ -3416,7 +6426,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3425,7 +6435,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -3436,7 +6446,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -3445,7 +6455,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3456,7 +6466,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -3465,7 +6475,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3476,7 +6486,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -3485,7 +6495,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -3496,7 +6506,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -3505,7 +6515,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -3516,7 +6526,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -3525,7 +6535,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -3536,7 +6546,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -3545,7 +6555,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -3556,7 +6566,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -3565,7 +6575,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -3576,22 +6586,122 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
         <v>15</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3600,38 +6710,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DC89B7-89F7-43B0-8C3E-3B228E36FA91}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4CD227-57B3-4E1B-B901-18783A882C6D}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3640,18 +6750,18 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -3660,18 +6770,18 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -3680,18 +6790,18 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -3700,33 +6810,213 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3735,18 +7025,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116C48A-8C8D-49DE-AD5B-22B2B88A2B6E}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B334BE-2F2C-4100-B484-5E91FEC1228C}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD4"/>
+      <selection activeCell="A15" sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -3755,18 +7045,18 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1">
         <v>10</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3775,18 +7065,18 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -3795,33 +7085,253 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3830,18 +7340,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836FC3F0-8E23-4352-AA99-A1981D80A044}">
-  <dimension ref="A2:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E188532F-9FE5-4735-91B7-6C2E6C1CE905}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3850,18 +7380,18 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -3870,18 +7400,18 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -3890,18 +7420,18 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -3910,18 +7440,18 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -3930,18 +7460,18 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -3950,73 +7480,173 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4025,18 +7655,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A87249-1648-4B41-8AFE-8FFE55BA6B4E}">
-  <dimension ref="A2:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E4A49C-8580-4EFE-85A7-2D46ABA84E42}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -4045,7 +7695,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4056,7 +7706,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -4065,13 +7715,253 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4080,18 +7970,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE337722-11CE-4E83-8381-0D7E19FDD5D4}">
-  <dimension ref="A2:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB12C0-D02F-4B9E-B948-49F269466BC2}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -4100,7 +8010,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -4111,7 +8021,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -4120,7 +8030,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -4131,7 +8041,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -4140,18 +8050,18 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -4160,18 +8070,18 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -4180,18 +8090,18 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -4200,13 +8110,173 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
         <v>15</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
